--- a/AGR & IND - Jonathans kladder/nrg_bal_all_agr&ind.xlsx
+++ b/AGR & IND - Jonathans kladder/nrg_bal_all_agr&ind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/AGR &amp; IND - Jonathans kladder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045A8601-4735-4C44-A631-70843C18297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501C857-EAF9-8446-AE8A-953FE11CAE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="115">
   <si>
     <t>Complete energy balances [NRG_BAL_C__custom_2305303]</t>
   </si>
@@ -321,10 +321,6 @@
   </si>
   <si>
     <t>Fuel Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renewables and wastes
-</t>
   </si>
   <si>
     <t>District Heating</t>
@@ -398,7 +394,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.##########"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -467,15 +463,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,12 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +566,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -652,7 +635,6 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,7 +656,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1113,22 +1094,22 @@
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1535,12 +1516,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AR45"/>
+  <dimension ref="A1:AQ45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="X9" sqref="X9"/>
-      <selection pane="topRight" activeCell="X9" sqref="X9"/>
+      <selection pane="topRight" activeCell="X26" sqref="Q26:X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1561,46 +1542,45 @@
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="19.83203125" customWidth="1"/>
-    <col min="17" max="23" width="19.83203125" style="27" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" customWidth="1"/>
-    <col min="25" max="25" width="19.83203125" customWidth="1"/>
-    <col min="26" max="26" width="8.1640625" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" customWidth="1"/>
-    <col min="28" max="28" width="9.5" customWidth="1"/>
-    <col min="29" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="5" customWidth="1"/>
-    <col min="31" max="31" width="19.83203125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="10" customWidth="1"/>
-    <col min="34" max="34" width="5" customWidth="1"/>
-    <col min="35" max="35" width="10" customWidth="1"/>
-    <col min="36" max="36" width="5" customWidth="1"/>
-    <col min="37" max="37" width="19.83203125" customWidth="1"/>
-    <col min="38" max="38" width="5" customWidth="1"/>
-    <col min="39" max="39" width="19.83203125" customWidth="1"/>
-    <col min="40" max="40" width="5" customWidth="1"/>
-    <col min="41" max="41" width="11" customWidth="1"/>
-    <col min="42" max="42" width="5" customWidth="1"/>
-    <col min="43" max="43" width="10" customWidth="1"/>
-    <col min="44" max="44" width="5" customWidth="1"/>
+    <col min="17" max="23" width="19.83203125" style="26" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" customWidth="1"/>
+    <col min="26" max="26" width="19.83203125" customWidth="1"/>
+    <col min="27" max="27" width="9.5" customWidth="1"/>
+    <col min="28" max="28" width="14" customWidth="1"/>
+    <col min="29" max="29" width="5" customWidth="1"/>
+    <col min="30" max="30" width="19.83203125" customWidth="1"/>
+    <col min="31" max="31" width="5" customWidth="1"/>
+    <col min="32" max="32" width="10" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="10" customWidth="1"/>
+    <col min="35" max="35" width="5" customWidth="1"/>
+    <col min="36" max="36" width="19.83203125" customWidth="1"/>
+    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="38" max="38" width="19.83203125" customWidth="1"/>
+    <col min="39" max="39" width="5" customWidth="1"/>
+    <col min="40" max="40" width="11" customWidth="1"/>
+    <col min="41" max="41" width="5" customWidth="1"/>
+    <col min="42" max="42" width="10" customWidth="1"/>
+    <col min="43" max="43" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1658,168 +1638,162 @@
         <v>40</v>
       </c>
       <c r="Q6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" s="17" t="s">
+      <c r="W6" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="X6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y6" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA6" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W7" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="31" t="s">
+      <c r="G8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="31" t="s">
+      <c r="I8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="31" t="s">
+      <c r="K8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="31" t="s">
+      <c r="M8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="31" t="s">
+      <c r="O8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y8" s="31" t="s">
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA8" s="31" t="s">
+      <c r="Y8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AB8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC8" s="31" t="s">
+      <c r="AA8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE8" s="31" t="s">
+      <c r="AC8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AF8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG8" s="31" t="s">
+      <c r="AE8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AH8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI8" s="31" t="s">
+      <c r="AG8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AJ8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK8" s="31" t="s">
+      <c r="AI8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AL8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM8" s="31" t="s">
+      <c r="AK8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AN8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO8" s="31" t="s">
+      <c r="AM8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AP8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ8" s="31" t="s">
+      <c r="AO8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AR8" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="AQ8" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>66</v>
       </c>
@@ -1869,47 +1843,46 @@
         <v>40</v>
       </c>
       <c r="Q9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="V9" s="17" t="s">
+      <c r="W9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="W9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" s="17"/>
+      <c r="X9" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="Y9" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AG9" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="AF9" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -1980,14 +1953,11 @@
       <c r="AB10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AC10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" ht="15" x14ac:dyDescent="0.2">
+      <c r="AF10" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>72</v>
       </c>
@@ -2037,50 +2007,49 @@
       <c r="P11" s="19">
         <v>843797.61600000004</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="34">
         <v>6513</v>
       </c>
-      <c r="R11" s="35">
-        <v>0</v>
-      </c>
-      <c r="S11" s="35">
-        <v>0</v>
-      </c>
-      <c r="T11" s="35">
-        <v>0</v>
-      </c>
-      <c r="U11" s="35">
+      <c r="R11" s="34">
+        <v>0</v>
+      </c>
+      <c r="S11" s="34">
+        <v>0</v>
+      </c>
+      <c r="T11" s="34">
+        <v>0</v>
+      </c>
+      <c r="U11" s="34">
         <v>2021.52</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11" s="34">
         <v>101118</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <v>42652</v>
       </c>
-      <c r="X11" s="21"/>
+      <c r="X11" s="19">
+        <v>146022</v>
+      </c>
       <c r="Y11" s="19">
-        <v>146022</v>
-      </c>
-      <c r="Z11" s="19">
         <v>822618</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="Z11" s="20">
         <v>102066</v>
       </c>
+      <c r="AA11" s="19">
+        <f>SUM(G11:Z11)+C11</f>
+        <v>2372614.094</v>
+      </c>
       <c r="AB11" s="19">
-        <f>SUM(G11:AA11)+C11</f>
-        <v>2372614.094</v>
-      </c>
-      <c r="AC11" s="19">
-        <f>AB11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+        <f>AA11-B11</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>73</v>
       </c>
@@ -2142,7 +2111,7 @@
       <c r="T12" s="15">
         <v>0</v>
       </c>
-      <c r="U12" s="39">
+      <c r="U12" s="37">
         <v>134.768</v>
       </c>
       <c r="V12" s="15">
@@ -2151,29 +2120,28 @@
       <c r="W12" s="15">
         <v>0</v>
       </c>
-      <c r="X12" s="21"/>
+      <c r="X12" s="20">
+        <v>1774</v>
+      </c>
       <c r="Y12" s="20">
-        <v>1774</v>
-      </c>
-      <c r="Z12" s="20">
         <v>97534.8</v>
       </c>
+      <c r="Z12" s="19">
+        <v>98063.7</v>
+      </c>
       <c r="AA12" s="19">
-        <v>98063.7</v>
+        <f>SUM(G12:Z12)+C12</f>
+        <v>330774.06900000002</v>
       </c>
       <c r="AB12" s="19">
-        <f>SUM(G12:AA12)+C12</f>
-        <v>330774.06900000002</v>
-      </c>
-      <c r="AC12" s="19">
-        <f>AB12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+        <f>AA12-B12</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>74</v>
       </c>
@@ -2223,50 +2191,49 @@
       <c r="P13" s="19">
         <v>224126.00700000001</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="34">
         <v>4839</v>
       </c>
-      <c r="R13" s="35">
-        <v>0</v>
-      </c>
-      <c r="S13" s="35">
-        <v>0</v>
-      </c>
-      <c r="T13" s="35">
-        <v>0</v>
-      </c>
-      <c r="U13" s="35">
+      <c r="R13" s="34">
+        <v>0</v>
+      </c>
+      <c r="S13" s="34">
+        <v>0</v>
+      </c>
+      <c r="T13" s="34">
+        <v>0</v>
+      </c>
+      <c r="U13" s="34">
         <v>168.46</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13" s="34">
         <v>1701</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13" s="34">
         <v>6545</v>
       </c>
-      <c r="X13" s="21"/>
+      <c r="X13" s="19">
+        <v>75475</v>
+      </c>
       <c r="Y13" s="19">
-        <v>75475</v>
-      </c>
-      <c r="Z13" s="19">
         <v>188413.2</v>
       </c>
-      <c r="AA13" s="20">
+      <c r="Z13" s="20">
         <v>3539.7</v>
       </c>
+      <c r="AA13" s="19">
+        <f>SUM(G13:Z13)+C13</f>
+        <v>588419.799</v>
+      </c>
       <c r="AB13" s="19">
-        <f>SUM(G13:AA13)+C13</f>
-        <v>588419.799</v>
-      </c>
-      <c r="AC13" s="19">
-        <f>AB13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+        <f>AA13-B13</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>75</v>
       </c>
@@ -2337,29 +2304,28 @@
       <c r="W14" s="15">
         <v>312</v>
       </c>
-      <c r="X14" s="21"/>
+      <c r="X14" s="20">
+        <v>2571</v>
+      </c>
       <c r="Y14" s="20">
-        <v>2571</v>
-      </c>
-      <c r="Z14" s="20">
         <v>49122</v>
       </c>
+      <c r="Z14" s="19">
+        <v>0</v>
+      </c>
       <c r="AA14" s="19">
-        <v>0</v>
+        <f>SUM(G14:Z14)+C14</f>
+        <v>89446.138000000006</v>
       </c>
       <c r="AB14" s="19">
-        <f>SUM(G14:AA14)+C14</f>
-        <v>89446.138000000006</v>
-      </c>
-      <c r="AC14" s="19">
-        <f>AB14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+        <f>AA14-B14</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>76</v>
       </c>
@@ -2409,50 +2375,49 @@
       <c r="P15" s="19">
         <v>102503.992</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="34">
         <v>17</v>
       </c>
-      <c r="R15" s="35">
-        <v>0</v>
-      </c>
-      <c r="S15" s="35">
-        <v>0</v>
-      </c>
-      <c r="T15" s="35">
-        <v>0</v>
-      </c>
-      <c r="U15" s="41">
+      <c r="R15" s="34">
+        <v>0</v>
+      </c>
+      <c r="S15" s="34">
+        <v>0</v>
+      </c>
+      <c r="T15" s="34">
+        <v>0</v>
+      </c>
+      <c r="U15" s="39">
         <v>1111.836</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15" s="34">
         <v>6041</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15" s="34">
         <v>33264</v>
       </c>
-      <c r="X15" s="21"/>
+      <c r="X15" s="19">
+        <v>608</v>
+      </c>
       <c r="Y15" s="19">
-        <v>608</v>
-      </c>
-      <c r="Z15" s="19">
         <v>44042.400000000001</v>
       </c>
-      <c r="AA15" s="20">
+      <c r="Z15" s="20">
         <v>107.1</v>
       </c>
+      <c r="AA15" s="19">
+        <f>SUM(G15:Z15)+C15</f>
+        <v>272879.16200000001</v>
+      </c>
       <c r="AB15" s="19">
-        <f>SUM(G15:AA15)+C15</f>
-        <v>272879.16200000001</v>
-      </c>
-      <c r="AC15" s="19">
-        <f>AB15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+        <f>AA15-B15</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>77</v>
       </c>
@@ -2514,7 +2479,7 @@
       <c r="T16" s="15">
         <v>0</v>
       </c>
-      <c r="U16" s="39">
+      <c r="U16" s="37">
         <v>101.07599999999999</v>
       </c>
       <c r="V16" s="15">
@@ -2523,29 +2488,28 @@
       <c r="W16" s="15">
         <v>0</v>
       </c>
-      <c r="X16" s="21"/>
+      <c r="X16" s="20">
+        <v>15937</v>
+      </c>
       <c r="Y16" s="20">
-        <v>15937</v>
-      </c>
-      <c r="Z16" s="20">
         <v>64216.800000000003</v>
       </c>
+      <c r="Z16" s="19">
+        <v>350.1</v>
+      </c>
       <c r="AA16" s="19">
-        <v>350.1</v>
+        <f>SUM(G16:Z16)+C16</f>
+        <v>123559.23300000001</v>
       </c>
       <c r="AB16" s="19">
-        <f>SUM(G16:AA16)+C16</f>
-        <v>123559.23300000001</v>
-      </c>
-      <c r="AC16" s="19">
-        <f>AB16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <f>AA16-B16</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>78</v>
       </c>
@@ -2595,50 +2559,49 @@
       <c r="P17" s="19">
         <v>74901.570999999996</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="34">
         <v>33</v>
       </c>
-      <c r="R17" s="35">
-        <v>0</v>
-      </c>
-      <c r="S17" s="35">
-        <v>0</v>
-      </c>
-      <c r="T17" s="35">
-        <v>0</v>
-      </c>
-      <c r="U17" s="35">
+      <c r="R17" s="34">
+        <v>0</v>
+      </c>
+      <c r="S17" s="34">
+        <v>0</v>
+      </c>
+      <c r="T17" s="34">
+        <v>0</v>
+      </c>
+      <c r="U17" s="34">
         <v>168.46</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17" s="34">
         <v>1648</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="34">
         <v>8</v>
       </c>
-      <c r="X17" s="21"/>
+      <c r="X17" s="19">
+        <v>13136</v>
+      </c>
       <c r="Y17" s="19">
-        <v>13136</v>
-      </c>
-      <c r="Z17" s="19">
         <v>118476</v>
       </c>
-      <c r="AA17" s="20">
-        <v>0</v>
+      <c r="Z17" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="19">
+        <f>SUM(G17:Z17)+C17</f>
+        <v>232432.842</v>
       </c>
       <c r="AB17" s="19">
-        <f>SUM(G17:AA17)+C17</f>
-        <v>232432.842</v>
-      </c>
-      <c r="AC17" s="19">
-        <f>AB17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+        <f>AA17-B17</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>79</v>
       </c>
@@ -2700,7 +2663,7 @@
       <c r="T18" s="15">
         <v>0</v>
       </c>
-      <c r="U18" s="39">
+      <c r="U18" s="37">
         <v>67.384</v>
       </c>
       <c r="V18" s="15">
@@ -2709,29 +2672,28 @@
       <c r="W18" s="15">
         <v>0</v>
       </c>
-      <c r="X18" s="21"/>
+      <c r="X18" s="20">
+        <v>56</v>
+      </c>
       <c r="Y18" s="20">
-        <v>56</v>
-      </c>
-      <c r="Z18" s="20">
         <v>7768.8</v>
       </c>
+      <c r="Z18" s="19">
+        <v>0</v>
+      </c>
       <c r="AA18" s="19">
-        <v>0</v>
+        <f>SUM(G18:Z18)+C18</f>
+        <v>18503.191999999999</v>
       </c>
       <c r="AB18" s="19">
-        <f>SUM(G18:AA18)+C18</f>
-        <v>18503.191999999999</v>
-      </c>
-      <c r="AC18" s="19">
-        <f>AB18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+        <f>AA18-B18</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>80</v>
       </c>
@@ -2781,50 +2743,49 @@
       <c r="P19" s="19">
         <v>105401.126</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="34">
         <v>583</v>
       </c>
-      <c r="R19" s="35">
-        <v>0</v>
-      </c>
-      <c r="S19" s="35">
-        <v>0</v>
-      </c>
-      <c r="T19" s="35">
-        <v>0</v>
-      </c>
-      <c r="U19" s="41">
+      <c r="R19" s="34">
+        <v>0</v>
+      </c>
+      <c r="S19" s="34">
+        <v>0</v>
+      </c>
+      <c r="T19" s="34">
+        <v>0</v>
+      </c>
+      <c r="U19" s="39">
         <v>235.84399999999999</v>
       </c>
-      <c r="V19" s="35">
+      <c r="V19" s="34">
         <v>1184</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19" s="34">
         <v>384</v>
       </c>
-      <c r="X19" s="21"/>
+      <c r="X19" s="19">
+        <v>5601</v>
+      </c>
       <c r="Y19" s="19">
-        <v>5601</v>
-      </c>
-      <c r="Z19" s="19">
         <v>63090</v>
       </c>
-      <c r="AA19" s="20">
-        <v>0</v>
+      <c r="Z19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="19">
+        <f>SUM(G19:Z19)+C19</f>
+        <v>201710.19500000001</v>
       </c>
       <c r="AB19" s="19">
-        <f>SUM(G19:AA19)+C19</f>
-        <v>201710.19500000001</v>
-      </c>
-      <c r="AC19" s="19">
-        <f>AB19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+        <f>AA19-B19</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>81</v>
       </c>
@@ -2895,29 +2856,28 @@
       <c r="W20" s="15">
         <v>2134</v>
       </c>
-      <c r="X20" s="21"/>
+      <c r="X20" s="20">
+        <v>17725</v>
+      </c>
       <c r="Y20" s="20">
-        <v>17725</v>
-      </c>
-      <c r="Z20" s="20">
         <v>87469.2</v>
       </c>
+      <c r="Z20" s="19">
+        <v>0</v>
+      </c>
       <c r="AA20" s="19">
-        <v>0</v>
+        <f>SUM(G20:Z20)+C20</f>
+        <v>262458.24100000004</v>
       </c>
       <c r="AB20" s="19">
-        <f>SUM(G20:AA20)+C20</f>
-        <v>262458.24100000004</v>
-      </c>
-      <c r="AC20" s="19">
-        <f>AB20-B20</f>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <f>AA20-B20</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>82</v>
       </c>
@@ -2967,50 +2927,49 @@
       <c r="P21" s="19">
         <v>6317.1729999999998</v>
       </c>
-      <c r="Q21" s="35">
-        <v>0</v>
-      </c>
-      <c r="R21" s="35">
-        <v>0</v>
-      </c>
-      <c r="S21" s="35">
-        <v>0</v>
-      </c>
-      <c r="T21" s="35">
-        <v>0</v>
-      </c>
-      <c r="U21" s="35">
-        <v>0</v>
-      </c>
-      <c r="V21" s="35">
+      <c r="Q21" s="34">
+        <v>0</v>
+      </c>
+      <c r="R21" s="34">
+        <v>0</v>
+      </c>
+      <c r="S21" s="34">
+        <v>0</v>
+      </c>
+      <c r="T21" s="34">
+        <v>0</v>
+      </c>
+      <c r="U21" s="34">
+        <v>0</v>
+      </c>
+      <c r="V21" s="34">
         <v>45952</v>
       </c>
-      <c r="W21" s="35">
-        <v>0</v>
-      </c>
-      <c r="X21" s="21"/>
+      <c r="W21" s="34">
+        <v>0</v>
+      </c>
+      <c r="X21" s="19">
+        <v>4184</v>
+      </c>
       <c r="Y21" s="19">
-        <v>4184</v>
-      </c>
-      <c r="Z21" s="19">
         <v>16236</v>
       </c>
-      <c r="AA21" s="20">
-        <v>0</v>
+      <c r="Z21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="19">
+        <f>SUM(G21:Z21)+C21</f>
+        <v>75463.908999999985</v>
       </c>
       <c r="AB21" s="19">
-        <f>SUM(G21:AA21)+C21</f>
-        <v>75463.908999999985</v>
-      </c>
-      <c r="AC21" s="19">
-        <f>AB21-B21</f>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+        <f>AA21-B21</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>83</v>
       </c>
@@ -3060,50 +3019,49 @@
       <c r="P22" s="19">
         <v>10936.927</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="34">
         <v>15</v>
       </c>
-      <c r="R22" s="35">
-        <v>0</v>
-      </c>
-      <c r="S22" s="35">
-        <v>0</v>
-      </c>
-      <c r="T22" s="35">
-        <v>0</v>
-      </c>
-      <c r="U22" s="35">
-        <v>0</v>
-      </c>
-      <c r="V22" s="35">
+      <c r="R22" s="34">
+        <v>0</v>
+      </c>
+      <c r="S22" s="34">
+        <v>0</v>
+      </c>
+      <c r="T22" s="34">
+        <v>0</v>
+      </c>
+      <c r="U22" s="34">
+        <v>0</v>
+      </c>
+      <c r="V22" s="34">
         <v>88</v>
       </c>
-      <c r="W22" s="35">
-        <v>0</v>
-      </c>
-      <c r="X22" s="21"/>
+      <c r="W22" s="34">
+        <v>0</v>
+      </c>
+      <c r="X22" s="19">
+        <v>2521</v>
+      </c>
       <c r="Y22" s="19">
-        <v>2521</v>
-      </c>
-      <c r="Z22" s="19">
         <v>8935.2000000000007</v>
       </c>
-      <c r="AA22" s="20">
-        <v>0</v>
+      <c r="Z22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="19">
+        <f>SUM(G22:Z22)+C22</f>
+        <v>24704.761999999999</v>
       </c>
       <c r="AB22" s="19">
-        <f>SUM(G22:AA22)+C22</f>
-        <v>24704.761999999999</v>
-      </c>
-      <c r="AC22" s="19">
-        <f>AB22-B22</f>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+        <f>AA22-B22</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>84</v>
       </c>
@@ -3174,29 +3132,28 @@
       <c r="W23" s="15">
         <v>0</v>
       </c>
-      <c r="X23" s="21"/>
+      <c r="X23" s="20">
+        <v>0</v>
+      </c>
       <c r="Y23" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="20">
         <v>14310</v>
       </c>
+      <c r="Z23" s="19">
+        <v>0</v>
+      </c>
       <c r="AA23" s="19">
-        <v>0</v>
+        <f>SUM(G23:Z23)+C23</f>
+        <v>36138.853999999999</v>
       </c>
       <c r="AB23" s="19">
-        <f>SUM(G23:AA23)+C23</f>
-        <v>36138.853999999999</v>
-      </c>
-      <c r="AC23" s="19">
-        <f>AB23-B23</f>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <f>AA23-B23</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>85</v>
       </c>
@@ -3258,7 +3215,7 @@
       <c r="T24" s="15">
         <v>0</v>
       </c>
-      <c r="U24" s="39">
+      <c r="U24" s="37">
         <v>33.692</v>
       </c>
       <c r="V24" s="15">
@@ -3267,29 +3224,28 @@
       <c r="W24" s="15">
         <v>5</v>
       </c>
-      <c r="X24" s="21"/>
+      <c r="X24" s="20">
+        <v>6434</v>
+      </c>
       <c r="Y24" s="20">
-        <v>6434</v>
-      </c>
-      <c r="Z24" s="20">
         <v>63003.6</v>
       </c>
+      <c r="Z24" s="19">
+        <v>5.4</v>
+      </c>
       <c r="AA24" s="19">
-        <v>5.4</v>
+        <f>SUM(G24:Z24)+C24</f>
+        <v>116123.69500000001</v>
       </c>
       <c r="AB24" s="19">
-        <f>SUM(G24:AA24)+C24</f>
-        <v>116123.69500000001</v>
-      </c>
-      <c r="AC24" s="19">
-        <f>AB24-B24</f>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+        <f>AA24-B24</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -3324,11 +3280,10 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
+      <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-    </row>
-    <row r="26" spans="1:33" ht="31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:32" ht="31" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>86</v>
       </c>
@@ -3378,67 +3333,66 @@
       <c r="P26" s="19">
         <v>13816.061</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="Q26" s="34">
         <v>11864</v>
       </c>
-      <c r="R26" s="35">
-        <v>0</v>
-      </c>
-      <c r="S26" s="35">
+      <c r="R26" s="34">
+        <v>0</v>
+      </c>
+      <c r="S26" s="34">
         <v>594.30399999999997</v>
       </c>
-      <c r="T26" s="35">
-        <v>0</v>
-      </c>
-      <c r="U26" s="41">
+      <c r="T26" s="34">
+        <v>0</v>
+      </c>
+      <c r="U26" s="39">
         <v>977.06799999999998</v>
       </c>
-      <c r="V26" s="35">
+      <c r="V26" s="34">
         <v>5457</v>
       </c>
-      <c r="W26" s="35">
-        <v>0</v>
-      </c>
-      <c r="X26" s="21"/>
+      <c r="W26" s="34">
+        <v>0</v>
+      </c>
+      <c r="X26" s="19">
+        <v>0</v>
+      </c>
       <c r="Y26" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="19">
         <v>21153.599999999999</v>
       </c>
-      <c r="AA26" s="20">
-        <v>0</v>
+      <c r="Z26" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="19">
+        <f>SUM(G26:Z26)+C26</f>
+        <v>53862.032999999996</v>
       </c>
       <c r="AB26" s="19">
-        <f>SUM(G26:AA26)+C26</f>
-        <v>53862.032999999996</v>
-      </c>
-      <c r="AC26" s="19">
-        <f>AB26-B26</f>
+        <f>AA26-B26</f>
         <v>-31.000000000007276</v>
       </c>
-      <c r="AG26" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+      <c r="AF26" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V28" s="45"/>
-    </row>
-    <row r="29" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+      <c r="V28" s="43"/>
+    </row>
+    <row r="29" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z29" s="15"/>
-    </row>
-    <row r="30" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+      <c r="Y29" s="15"/>
+    </row>
+    <row r="30" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -3450,7 +3404,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:AR8"/>
+    <mergeCell ref="B8:AQ8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3459,72 +3413,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B397A6-FEB5-954C-B718-C22E70A17343}">
-  <dimension ref="A1:AC44"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection activeCell="X9" sqref="X9"/>
-      <selection pane="topRight" activeCell="X9" sqref="X9"/>
+      <selection activeCell="X1" sqref="X1:X1048576"/>
+      <selection pane="topRight" activeCell="Q26" sqref="Q26:X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10" style="27" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11" style="27" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="13" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10" style="27" customWidth="1"/>
-    <col min="9" max="9" width="5" style="27" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="5" style="27" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="11" style="27" customWidth="1"/>
-    <col min="16" max="23" width="19.83203125" style="27" customWidth="1"/>
-    <col min="24" max="24" width="16.5" style="27" customWidth="1"/>
-    <col min="25" max="25" width="19.83203125" style="27" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" style="27" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" style="27" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" style="27" customWidth="1"/>
-    <col min="29" max="29" width="9.5" style="27" customWidth="1"/>
-    <col min="30" max="30" width="8.5" style="27" customWidth="1"/>
-    <col min="31" max="31" width="19.83203125" style="27" customWidth="1"/>
-    <col min="32" max="32" width="5" style="27" customWidth="1"/>
-    <col min="33" max="33" width="10" style="27" customWidth="1"/>
-    <col min="34" max="34" width="5" style="27" customWidth="1"/>
-    <col min="35" max="35" width="10" style="27" customWidth="1"/>
-    <col min="36" max="36" width="5" style="27" customWidth="1"/>
-    <col min="37" max="37" width="19.83203125" style="27" customWidth="1"/>
-    <col min="38" max="38" width="5" style="27" customWidth="1"/>
-    <col min="39" max="39" width="19.83203125" style="27" customWidth="1"/>
-    <col min="40" max="40" width="5" style="27" customWidth="1"/>
-    <col min="41" max="41" width="11" style="27" customWidth="1"/>
-    <col min="42" max="42" width="5" style="27" customWidth="1"/>
-    <col min="43" max="43" width="10" style="27" customWidth="1"/>
-    <col min="44" max="44" width="5" style="27" customWidth="1"/>
-    <col min="45" max="16384" width="8.83203125" style="27"/>
+    <col min="1" max="1" width="50.6640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="13" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5" style="26" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="5" style="26" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="11" style="26" customWidth="1"/>
+    <col min="16" max="24" width="19.83203125" style="26" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="26" customWidth="1"/>
+    <col min="26" max="26" width="19.83203125" style="26" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="9.5" style="26" customWidth="1"/>
+    <col min="29" max="29" width="8.5" style="26" customWidth="1"/>
+    <col min="30" max="30" width="19.83203125" style="26" customWidth="1"/>
+    <col min="31" max="31" width="5" style="26" customWidth="1"/>
+    <col min="32" max="32" width="10" style="26" customWidth="1"/>
+    <col min="33" max="33" width="5" style="26" customWidth="1"/>
+    <col min="34" max="34" width="10" style="26" customWidth="1"/>
+    <col min="35" max="35" width="5" style="26" customWidth="1"/>
+    <col min="36" max="36" width="19.83203125" style="26" customWidth="1"/>
+    <col min="37" max="37" width="5" style="26" customWidth="1"/>
+    <col min="38" max="38" width="19.83203125" style="26" customWidth="1"/>
+    <col min="39" max="39" width="5" style="26" customWidth="1"/>
+    <col min="40" max="40" width="11" style="26" customWidth="1"/>
+    <col min="41" max="41" width="5" style="26" customWidth="1"/>
+    <col min="42" max="42" width="10" style="26" customWidth="1"/>
+    <col min="43" max="43" width="5" style="26" customWidth="1"/>
+    <col min="44" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3580,23 +3532,20 @@
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
-      <c r="X5" s="36" t="s">
+      <c r="X5" s="25" t="s">
         <v>95</v>
       </c>
       <c r="Y5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Z5" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="AA5" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3604,108 +3553,105 @@
         <v>16</v>
       </c>
       <c r="Q6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" s="17" t="s">
+      <c r="W6" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W7" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB8" s="28">
+      <c r="B8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA8" s="27">
         <v>2015</v>
       </c>
-      <c r="AC8" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB8" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>66</v>
       </c>
@@ -3755,44 +3701,43 @@
         <v>40</v>
       </c>
       <c r="Q9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="V9" s="17" t="s">
+      <c r="W9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="W9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" s="17"/>
+      <c r="X9" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="Y9" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC9" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -3863,970 +3808,957 @@
       <c r="AB10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AC10" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>2347437.8429999999</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>165986.215</v>
       </c>
-      <c r="D11" s="34">
-        <v>0</v>
-      </c>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <v>124772.26700000001</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <v>17354.07</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="33">
         <v>3810.7440000000001</v>
       </c>
-      <c r="I11" s="34">
-        <v>0</v>
-      </c>
-      <c r="J11" s="34">
-        <v>0</v>
-      </c>
-      <c r="K11" s="34">
-        <v>0</v>
-      </c>
-      <c r="L11" s="34">
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33">
         <v>31425.475999999999</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <v>59921.184999999998</v>
       </c>
-      <c r="N11" s="34">
-        <v>0</v>
-      </c>
-      <c r="O11" s="34">
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="33">
         <f>F11-SUM(G11:N11)</f>
         <v>12260.792000000016</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="33">
         <v>803822.4</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="33">
         <v>2526</v>
       </c>
-      <c r="R11" s="34">
-        <v>0</v>
-      </c>
-      <c r="S11" s="34">
-        <v>0</v>
-      </c>
-      <c r="T11" s="34">
-        <v>0</v>
-      </c>
-      <c r="U11" s="39">
+      <c r="R11" s="33">
+        <v>0</v>
+      </c>
+      <c r="S11" s="33">
+        <v>0</v>
+      </c>
+      <c r="T11" s="33">
+        <v>0</v>
+      </c>
+      <c r="U11" s="37">
         <v>788.36099999999999</v>
       </c>
       <c r="V11" s="15">
         <v>90388</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="33">
         <v>58874</v>
       </c>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34">
+      <c r="X11" s="33">
         <v>173430</v>
       </c>
+      <c r="Y11" s="33">
+        <v>823770</v>
+      </c>
       <c r="Z11" s="34">
-        <v>823770</v>
-      </c>
-      <c r="AA11" s="35">
         <v>103080.6</v>
       </c>
-      <c r="AB11" s="34">
-        <f>SUM(G11:AA11)+C11</f>
+      <c r="AA11" s="33">
+        <f>SUM(G11:Z11)+C11</f>
         <v>2347437.8429999999</v>
       </c>
-      <c r="AC11" s="33">
-        <f>AB11-B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB11" s="32">
+        <f>AA11-B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>323693.26799999998</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <v>38292.796000000002</v>
       </c>
-      <c r="D12" s="33">
-        <v>0</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>3491.672</v>
       </c>
-      <c r="G12" s="33">
-        <v>0</v>
-      </c>
-      <c r="H12" s="33">
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32">
         <v>45.366</v>
       </c>
-      <c r="I12" s="33">
-        <v>0</v>
-      </c>
-      <c r="J12" s="33">
-        <v>0</v>
-      </c>
-      <c r="K12" s="33">
-        <v>0</v>
-      </c>
-      <c r="L12" s="33">
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32">
         <v>3382.306</v>
       </c>
-      <c r="M12" s="33">
-        <v>0</v>
-      </c>
-      <c r="N12" s="33">
-        <v>0</v>
-      </c>
-      <c r="O12" s="34">
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="33">
         <f>F12-SUM(G12:N12)</f>
         <v>64</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="32">
         <v>88242.3</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="32">
         <v>1</v>
       </c>
-      <c r="R12" s="33">
-        <v>0</v>
-      </c>
-      <c r="S12" s="33">
-        <v>0</v>
-      </c>
-      <c r="T12" s="33">
-        <v>0</v>
-      </c>
-      <c r="U12" s="35">
-        <v>0</v>
-      </c>
-      <c r="V12" s="35">
+      <c r="R12" s="32">
+        <v>0</v>
+      </c>
+      <c r="S12" s="32">
+        <v>0</v>
+      </c>
+      <c r="T12" s="32">
+        <v>0</v>
+      </c>
+      <c r="U12" s="34">
+        <v>0</v>
+      </c>
+      <c r="V12" s="34">
         <v>63</v>
       </c>
-      <c r="W12" s="33">
-        <v>0</v>
-      </c>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33">
+      <c r="W12" s="32">
+        <v>0</v>
+      </c>
+      <c r="X12" s="32">
         <v>1520</v>
       </c>
-      <c r="Z12" s="33">
+      <c r="Y12" s="32">
         <v>93826.8</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="Z12" s="15">
         <v>98255.7</v>
       </c>
-      <c r="AB12" s="34">
-        <f>SUM(G12:AA12)+C12</f>
+      <c r="AA12" s="33">
+        <f>SUM(G12:Z12)+C12</f>
         <v>323693.26800000004</v>
       </c>
-      <c r="AC12" s="33">
-        <f>AB12-B12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB12" s="32">
+        <f>AA12-B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>617383.64199999999</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>41000.930999999997</v>
       </c>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <v>68586.876999999993</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <v>13671.620999999999</v>
       </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34">
-        <v>0</v>
-      </c>
-      <c r="J13" s="34">
-        <v>0</v>
-      </c>
-      <c r="K13" s="34">
-        <v>0</v>
-      </c>
-      <c r="L13" s="34">
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33">
         <v>813.46600000000001</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <v>53525.79</v>
       </c>
-      <c r="N13" s="34">
-        <v>0</v>
-      </c>
-      <c r="O13" s="34">
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="33">
         <f>F13-SUM(G13:N13)</f>
         <v>575.99999999998545</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="33">
         <v>204782.4</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="33">
         <v>381</v>
       </c>
-      <c r="R13" s="34">
-        <v>0</v>
-      </c>
-      <c r="S13" s="34">
-        <v>0</v>
-      </c>
-      <c r="T13" s="34">
-        <v>0</v>
-      </c>
-      <c r="U13" s="39">
+      <c r="R13" s="33">
+        <v>0</v>
+      </c>
+      <c r="S13" s="33">
+        <v>0</v>
+      </c>
+      <c r="T13" s="33">
+        <v>0</v>
+      </c>
+      <c r="U13" s="37">
         <v>356.03399999999999</v>
       </c>
       <c r="V13" s="15">
         <v>1409</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13" s="33">
         <v>8685</v>
       </c>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34">
+      <c r="X13" s="33">
         <v>97183</v>
       </c>
+      <c r="Y13" s="33">
+        <v>192474</v>
+      </c>
       <c r="Z13" s="34">
-        <v>192474</v>
-      </c>
-      <c r="AA13" s="35">
         <v>2525.4</v>
       </c>
-      <c r="AB13" s="34">
-        <f>SUM(G13:AA13)+C13</f>
+      <c r="AA13" s="33">
+        <f>SUM(G13:Z13)+C13</f>
         <v>617383.64199999999</v>
       </c>
-      <c r="AC13" s="33">
-        <f>AB13-B13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB13" s="32">
+        <f>AA13-B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>96839.25</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>1343.058</v>
       </c>
-      <c r="D14" s="33">
-        <v>0</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>3138.9920000000002</v>
       </c>
-      <c r="G14" s="33">
-        <v>0</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
         <v>90.731999999999999</v>
       </c>
-      <c r="I14" s="33">
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
-        <v>0</v>
-      </c>
-      <c r="K14" s="33">
-        <v>0</v>
-      </c>
-      <c r="L14" s="33">
+      <c r="I14" s="32">
+        <v>0</v>
+      </c>
+      <c r="J14" s="32">
+        <v>0</v>
+      </c>
+      <c r="K14" s="32">
+        <v>0</v>
+      </c>
+      <c r="L14" s="32">
         <v>642.21</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="32">
         <v>1222.05</v>
       </c>
-      <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="34">
+      <c r="N14" s="32">
+        <v>0</v>
+      </c>
+      <c r="O14" s="33">
         <f>F14-SUM(G14:N14)</f>
         <v>1184.0000000000002</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="32">
         <v>33843.599999999999</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="32">
         <v>13</v>
       </c>
-      <c r="R14" s="33">
-        <v>0</v>
-      </c>
-      <c r="S14" s="33">
-        <v>0</v>
-      </c>
-      <c r="T14" s="33">
-        <v>0</v>
-      </c>
-      <c r="U14" s="35">
-        <v>0</v>
-      </c>
-      <c r="V14" s="35">
-        <v>0</v>
-      </c>
-      <c r="W14" s="33">
+      <c r="R14" s="32">
+        <v>0</v>
+      </c>
+      <c r="S14" s="32">
+        <v>0</v>
+      </c>
+      <c r="T14" s="32">
+        <v>0</v>
+      </c>
+      <c r="U14" s="34">
+        <v>0</v>
+      </c>
+      <c r="V14" s="34">
+        <v>0</v>
+      </c>
+      <c r="W14" s="32">
         <v>256</v>
       </c>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33">
+      <c r="X14" s="32">
         <v>1109</v>
       </c>
-      <c r="Z14" s="33">
+      <c r="Y14" s="32">
         <v>57135.6</v>
       </c>
-      <c r="AA14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="34">
-        <f>SUM(G14:AA14)+C14</f>
+      <c r="Z14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="33">
+        <f>SUM(G14:Z14)+C14</f>
         <v>96839.25</v>
       </c>
-      <c r="AC14" s="33">
-        <f>AB14-B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB14" s="32">
+        <f>AA14-B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>274429.65700000001</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <v>57791.9</v>
       </c>
-      <c r="D15" s="34">
-        <v>0</v>
-      </c>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="33">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <v>17193.571</v>
       </c>
-      <c r="G15" s="34">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
         <v>453.66</v>
       </c>
-      <c r="I15" s="34">
-        <v>0</v>
-      </c>
-      <c r="J15" s="34">
-        <v>0</v>
-      </c>
-      <c r="K15" s="34">
-        <v>0</v>
-      </c>
-      <c r="L15" s="34">
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
         <v>3339.4920000000002</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <v>3462.4749999999999</v>
       </c>
-      <c r="N15" s="34">
-        <v>0</v>
-      </c>
-      <c r="O15" s="34">
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33">
         <f>F15-SUM(G15:N15)</f>
         <v>9937.9439999999995</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="33">
         <v>104013</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="33">
         <v>22</v>
       </c>
-      <c r="R15" s="34">
-        <v>0</v>
-      </c>
-      <c r="S15" s="34">
-        <v>0</v>
-      </c>
-      <c r="T15" s="34">
-        <v>0</v>
-      </c>
-      <c r="U15" s="39">
+      <c r="R15" s="33">
+        <v>0</v>
+      </c>
+      <c r="S15" s="33">
+        <v>0</v>
+      </c>
+      <c r="T15" s="33">
+        <v>0</v>
+      </c>
+      <c r="U15" s="37">
         <v>152.58600000000001</v>
       </c>
       <c r="V15" s="15">
         <v>5787</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="33">
         <v>44429</v>
       </c>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34">
+      <c r="X15" s="33">
         <v>775</v>
       </c>
+      <c r="Y15" s="33">
+        <v>44265.599999999999</v>
+      </c>
       <c r="Z15" s="34">
-        <v>44265.599999999999</v>
-      </c>
-      <c r="AA15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="34">
-        <f>SUM(G15:AA15)+C15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="33">
+        <f>SUM(G15:Z15)+C15</f>
         <v>274429.65700000001</v>
       </c>
-      <c r="AC15" s="33">
-        <f>AB15-B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB15" s="32">
+        <f>AA15-B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>120490.32</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>126.816</v>
       </c>
-      <c r="D16" s="33">
-        <v>0</v>
-      </c>
-      <c r="E16" s="33" t="s">
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>1839.742</v>
       </c>
-      <c r="G16" s="33">
-        <v>0</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
         <v>136.09800000000001</v>
       </c>
-      <c r="I16" s="33">
-        <v>0</v>
-      </c>
-      <c r="J16" s="33">
-        <v>0</v>
-      </c>
-      <c r="K16" s="33">
-        <v>0</v>
-      </c>
-      <c r="L16" s="33">
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0</v>
+      </c>
+      <c r="K16" s="32">
+        <v>0</v>
+      </c>
+      <c r="L16" s="32">
         <v>1626.932</v>
       </c>
-      <c r="M16" s="33">
-        <v>0</v>
-      </c>
-      <c r="N16" s="33">
-        <v>0</v>
-      </c>
-      <c r="O16" s="34">
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+      <c r="O16" s="33">
         <f>F16-SUM(G16:N16)</f>
         <v>76.711999999999989</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="32">
         <v>36487.800000000003</v>
       </c>
-      <c r="Q16" s="33">
-        <v>0</v>
-      </c>
-      <c r="R16" s="33">
-        <v>0</v>
-      </c>
-      <c r="S16" s="33">
-        <v>0</v>
-      </c>
-      <c r="T16" s="33">
-        <v>0</v>
-      </c>
-      <c r="U16" s="41">
+      <c r="Q16" s="32">
+        <v>0</v>
+      </c>
+      <c r="R16" s="32">
+        <v>0</v>
+      </c>
+      <c r="S16" s="32">
+        <v>0</v>
+      </c>
+      <c r="T16" s="32">
+        <v>0</v>
+      </c>
+      <c r="U16" s="39">
         <v>50.862000000000002</v>
       </c>
-      <c r="V16" s="35">
+      <c r="V16" s="34">
         <v>225</v>
       </c>
-      <c r="W16" s="33">
+      <c r="W16" s="32">
         <v>2</v>
       </c>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33">
+      <c r="X16" s="32">
         <v>13440</v>
       </c>
-      <c r="Z16" s="33">
+      <c r="Y16" s="32">
         <v>66654</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="Z16" s="15">
         <v>1664.1</v>
       </c>
-      <c r="AB16" s="34">
-        <f>SUM(G16:AA16)+C16</f>
+      <c r="AA16" s="33">
+        <f>SUM(G16:Z16)+C16</f>
         <v>120490.32000000002</v>
       </c>
-      <c r="AC16" s="33">
-        <f>AB16-B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB16" s="32">
+        <f>AA16-B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>214809.09700000001</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>336.67700000000002</v>
       </c>
-      <c r="D17" s="34">
-        <v>0</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="33">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <v>9877.6270000000004</v>
       </c>
-      <c r="G17" s="34">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34">
+      <c r="G17" s="33">
+        <v>0</v>
+      </c>
+      <c r="H17" s="33">
         <v>1497.078</v>
       </c>
-      <c r="I17" s="34">
-        <v>0</v>
-      </c>
-      <c r="J17" s="34">
-        <v>0</v>
-      </c>
-      <c r="K17" s="34">
-        <v>0</v>
-      </c>
-      <c r="L17" s="34">
+      <c r="I17" s="33">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="33">
         <v>8263.1020000000008</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <v>40.734999999999999</v>
       </c>
-      <c r="N17" s="34">
-        <v>0</v>
-      </c>
-      <c r="O17" s="34">
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="O17" s="33">
         <f>F17-SUM(G17:N17)</f>
         <v>76.711999999999534</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="33">
         <v>71144.100000000006</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <v>371</v>
       </c>
-      <c r="R17" s="34">
-        <v>0</v>
-      </c>
-      <c r="S17" s="34">
-        <v>0</v>
-      </c>
-      <c r="T17" s="34">
-        <v>0</v>
-      </c>
-      <c r="U17" s="39">
+      <c r="R17" s="33">
+        <v>0</v>
+      </c>
+      <c r="S17" s="33">
+        <v>0</v>
+      </c>
+      <c r="T17" s="33">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
         <v>76.293000000000006</v>
       </c>
       <c r="V17" s="15">
         <v>2144</v>
       </c>
-      <c r="W17" s="34">
+      <c r="W17" s="33">
         <v>1</v>
       </c>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34">
+      <c r="X17" s="33">
         <v>9929</v>
       </c>
+      <c r="Y17" s="33">
+        <v>120315.6</v>
+      </c>
       <c r="Z17" s="34">
-        <v>120315.6</v>
-      </c>
-      <c r="AA17" s="35">
         <v>613.79999999999995</v>
       </c>
-      <c r="AB17" s="34">
-        <f>SUM(G17:AA17)+C17</f>
+      <c r="AA17" s="33">
+        <f>SUM(G17:Z17)+C17</f>
         <v>214809.09700000001</v>
       </c>
-      <c r="AC17" s="33">
-        <f>AB17-B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB17" s="32">
+        <f>AA17-B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>15335.648999999999</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <v>2557.4859999999999</v>
       </c>
-      <c r="D18" s="33">
-        <v>0</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="32">
         <v>1230.8630000000001</v>
       </c>
-      <c r="G18" s="33">
-        <v>0</v>
-      </c>
-      <c r="H18" s="33">
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
         <v>317.56200000000001</v>
       </c>
-      <c r="I18" s="33">
-        <v>0</v>
-      </c>
-      <c r="J18" s="33">
-        <v>0</v>
-      </c>
-      <c r="K18" s="33">
-        <v>0</v>
-      </c>
-      <c r="L18" s="33">
+      <c r="I18" s="32">
+        <v>0</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0</v>
+      </c>
+      <c r="K18" s="32">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32">
         <v>642.21</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="32">
         <v>40.734999999999999</v>
       </c>
-      <c r="N18" s="33">
-        <v>0</v>
-      </c>
-      <c r="O18" s="34">
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="33">
         <f>F18-SUM(G18:N18)</f>
         <v>230.35599999999999</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="32">
         <v>4308.3</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="32">
         <v>50</v>
       </c>
-      <c r="R18" s="33">
-        <v>0</v>
-      </c>
-      <c r="S18" s="33">
-        <v>0</v>
-      </c>
-      <c r="T18" s="33">
-        <v>0</v>
-      </c>
-      <c r="U18" s="35">
-        <v>0</v>
-      </c>
-      <c r="V18" s="35">
+      <c r="R18" s="32">
+        <v>0</v>
+      </c>
+      <c r="S18" s="32">
+        <v>0</v>
+      </c>
+      <c r="T18" s="32">
+        <v>0</v>
+      </c>
+      <c r="U18" s="34">
+        <v>0</v>
+      </c>
+      <c r="V18" s="34">
         <v>809</v>
       </c>
-      <c r="W18" s="33">
-        <v>0</v>
-      </c>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33">
+      <c r="W18" s="32">
+        <v>0</v>
+      </c>
+      <c r="X18" s="32">
         <v>116</v>
       </c>
-      <c r="Z18" s="33">
+      <c r="Y18" s="32">
         <v>6264</v>
       </c>
-      <c r="AA18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="34">
-        <f>SUM(G18:AA18)+C18</f>
+      <c r="Z18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="33">
+        <f>SUM(G18:Z18)+C18</f>
         <v>15335.649000000001</v>
       </c>
-      <c r="AC18" s="33">
-        <f>AB18-B18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB18" s="32">
+        <f>AA18-B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>204843.899</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <v>8783.3140000000003</v>
       </c>
-      <c r="D19" s="34">
-        <v>0</v>
-      </c>
-      <c r="E19" s="34" t="s">
+      <c r="D19" s="33">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="33">
         <v>7750.8540000000003</v>
       </c>
-      <c r="G19" s="34">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34">
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+      <c r="H19" s="33">
         <v>226.83</v>
       </c>
-      <c r="I19" s="34">
-        <v>0</v>
-      </c>
-      <c r="J19" s="34">
-        <v>0</v>
-      </c>
-      <c r="K19" s="34">
-        <v>0</v>
-      </c>
-      <c r="L19" s="34">
+      <c r="I19" s="33">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
+        <v>0</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
         <v>6464.9139999999998</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="33">
         <v>1059.1099999999999</v>
       </c>
-      <c r="N19" s="34">
-        <v>0</v>
-      </c>
-      <c r="O19" s="34">
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33">
         <f>F19-SUM(G19:N19)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="33">
         <v>110628.9</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="33">
         <v>695</v>
       </c>
-      <c r="R19" s="34">
-        <v>0</v>
-      </c>
-      <c r="S19" s="34">
-        <v>0</v>
-      </c>
-      <c r="T19" s="34">
-        <v>0</v>
-      </c>
-      <c r="U19" s="39">
+      <c r="R19" s="33">
+        <v>0</v>
+      </c>
+      <c r="S19" s="33">
+        <v>0</v>
+      </c>
+      <c r="T19" s="33">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37">
         <v>25.431000000000001</v>
       </c>
       <c r="V19" s="15">
         <v>1637</v>
       </c>
-      <c r="W19" s="34">
-        <v>0</v>
-      </c>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34">
+      <c r="W19" s="33">
+        <v>0</v>
+      </c>
+      <c r="X19" s="33">
         <v>9825</v>
       </c>
+      <c r="Y19" s="33">
+        <v>65498.400000000001</v>
+      </c>
       <c r="Z19" s="34">
-        <v>65498.400000000001</v>
-      </c>
-      <c r="AA19" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="34">
-        <f>SUM(G19:AA19)+C19</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="33">
+        <f>SUM(G19:Z19)+C19</f>
         <v>204843.899</v>
       </c>
-      <c r="AC19" s="33">
-        <f>AB19-B19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB19" s="32">
+        <f>AA19-B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>237953.03599999999</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>15391.97</v>
       </c>
-      <c r="D20" s="33">
-        <v>0</v>
-      </c>
-      <c r="E20" s="33" t="s">
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="32">
         <v>2155.8110000000001</v>
       </c>
-      <c r="G20" s="33">
-        <v>0</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
         <v>680.49</v>
       </c>
-      <c r="I20" s="33">
-        <v>0</v>
-      </c>
-      <c r="J20" s="33">
-        <v>0</v>
-      </c>
-      <c r="K20" s="33">
-        <v>0</v>
-      </c>
-      <c r="L20" s="33">
+      <c r="I20" s="32">
+        <v>0</v>
+      </c>
+      <c r="J20" s="32">
+        <v>0</v>
+      </c>
+      <c r="K20" s="32">
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
         <v>1070.3499999999999</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="32">
         <v>366.61500000000001</v>
       </c>
-      <c r="N20" s="33">
-        <v>0</v>
-      </c>
-      <c r="O20" s="34">
+      <c r="N20" s="32">
+        <v>0</v>
+      </c>
+      <c r="O20" s="33">
         <f>F20-SUM(G20:N20)</f>
         <v>38.356000000000222</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="32">
         <v>86829.3</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="32">
         <v>924</v>
       </c>
-      <c r="R20" s="33">
-        <v>0</v>
-      </c>
-      <c r="S20" s="33">
-        <v>0</v>
-      </c>
-      <c r="T20" s="33">
-        <v>0</v>
-      </c>
-      <c r="U20" s="41">
+      <c r="R20" s="32">
+        <v>0</v>
+      </c>
+      <c r="S20" s="32">
+        <v>0</v>
+      </c>
+      <c r="T20" s="32">
+        <v>0</v>
+      </c>
+      <c r="U20" s="39">
         <v>127.155</v>
       </c>
-      <c r="V20" s="35">
+      <c r="V20" s="34">
         <v>22533</v>
       </c>
-      <c r="W20" s="33">
+      <c r="W20" s="32">
         <v>5482</v>
       </c>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33">
+      <c r="X20" s="32">
         <v>27747</v>
       </c>
-      <c r="Z20" s="33">
+      <c r="Y20" s="32">
         <v>76762.8</v>
       </c>
-      <c r="AA20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="34">
-        <f>SUM(G20:AA20)+C20</f>
+      <c r="Z20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="33">
+        <f>SUM(G20:Z20)+C20</f>
         <v>237953.03599999999</v>
       </c>
-      <c r="AC20" s="33">
-        <f>AB20-B20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB20" s="32">
+        <f>AA20-B20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>74996.255000000005</v>
       </c>
-      <c r="C21" s="33">
-        <v>0</v>
-      </c>
-      <c r="D21" s="34">
-        <v>0</v>
-      </c>
-      <c r="E21" s="34" t="s">
+      <c r="C21" s="32">
+        <v>0</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <v>557.05499999999995</v>
       </c>
-      <c r="G21" s="34">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34">
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+      <c r="H21" s="33">
         <v>45.366</v>
       </c>
-      <c r="I21" s="34">
-        <v>0</v>
-      </c>
-      <c r="J21" s="34">
-        <v>0</v>
-      </c>
-      <c r="K21" s="34">
-        <v>0</v>
-      </c>
-      <c r="L21" s="34">
+      <c r="I21" s="33">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
+        <v>0</v>
+      </c>
+      <c r="K21" s="33">
+        <v>0</v>
+      </c>
+      <c r="L21" s="33">
         <v>470.95400000000001</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="33">
         <v>40.734999999999999</v>
       </c>
-      <c r="N21" s="34">
-        <v>0</v>
-      </c>
-      <c r="O21" s="34">
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="33">
         <f>F21-SUM(G21:N21)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="33">
         <v>5130</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="33">
         <v>11</v>
       </c>
-      <c r="R21" s="34">
-        <v>0</v>
-      </c>
-      <c r="S21" s="34">
-        <v>0</v>
-      </c>
-      <c r="T21" s="34">
+      <c r="R21" s="33">
+        <v>0</v>
+      </c>
+      <c r="S21" s="33">
+        <v>0</v>
+      </c>
+      <c r="T21" s="33">
         <v>0</v>
       </c>
       <c r="U21" s="15">
@@ -4835,88 +4767,87 @@
       <c r="V21" s="15">
         <v>50270</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="33">
         <v>19</v>
       </c>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34">
+      <c r="X21" s="33">
         <v>2838</v>
       </c>
+      <c r="Y21" s="33">
+        <v>16171.2</v>
+      </c>
       <c r="Z21" s="34">
-        <v>16171.2</v>
-      </c>
-      <c r="AA21" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="34">
-        <f>SUM(G21:AA21)+C21</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="33">
+        <f>SUM(G21:Z21)+C21</f>
         <v>74996.255000000005</v>
       </c>
-      <c r="AC21" s="33">
-        <f>AB21-B21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB21" s="32">
+        <f>AA21-B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <v>21569.934000000001</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <v>253.63200000000001</v>
       </c>
-      <c r="D22" s="34">
-        <v>0</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="D22" s="33">
+        <v>0</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <v>940.30200000000002</v>
       </c>
-      <c r="G22" s="34">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+      <c r="H22" s="33">
         <v>45.366</v>
       </c>
-      <c r="I22" s="34">
-        <v>0</v>
-      </c>
-      <c r="J22" s="34">
-        <v>0</v>
-      </c>
-      <c r="K22" s="34">
-        <v>0</v>
-      </c>
-      <c r="L22" s="34">
+      <c r="I22" s="33">
+        <v>0</v>
+      </c>
+      <c r="J22" s="33">
+        <v>0</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0</v>
+      </c>
+      <c r="L22" s="33">
         <v>813.46600000000001</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="33">
         <v>81.47</v>
       </c>
-      <c r="N22" s="34">
-        <v>0</v>
-      </c>
-      <c r="O22" s="34">
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="O22" s="33">
         <f>F22-SUM(G22:N22)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22" s="33">
         <v>9849.6</v>
       </c>
-      <c r="Q22" s="34">
-        <v>0</v>
-      </c>
-      <c r="R22" s="34">
-        <v>0</v>
-      </c>
-      <c r="S22" s="34">
-        <v>0</v>
-      </c>
-      <c r="T22" s="34">
+      <c r="Q22" s="33">
+        <v>0</v>
+      </c>
+      <c r="R22" s="33">
+        <v>0</v>
+      </c>
+      <c r="S22" s="33">
+        <v>0</v>
+      </c>
+      <c r="T22" s="33">
         <v>0</v>
       </c>
       <c r="U22" s="15">
@@ -4925,360 +4856,352 @@
       <c r="V22" s="15">
         <v>96</v>
       </c>
-      <c r="W22" s="34">
-        <v>0</v>
-      </c>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34">
+      <c r="W22" s="33">
+        <v>0</v>
+      </c>
+      <c r="X22" s="33">
         <v>2298</v>
       </c>
+      <c r="Y22" s="33">
+        <v>8132.4</v>
+      </c>
       <c r="Z22" s="34">
-        <v>8132.4</v>
-      </c>
-      <c r="AA22" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="34">
-        <f>SUM(G22:AA22)+C22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="33">
+        <f>SUM(G22:Z22)+C22</f>
         <v>21569.934000000001</v>
       </c>
-      <c r="AC22" s="33">
-        <f>AB22-B22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB22" s="32">
+        <f>AA22-B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>35077.5</v>
       </c>
-      <c r="C23" s="34">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33">
-        <v>0</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="C23" s="33">
+        <v>0</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="33">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33">
-        <v>0</v>
-      </c>
-      <c r="H23" s="33">
-        <v>0</v>
-      </c>
-      <c r="I23" s="33">
-        <v>0</v>
-      </c>
-      <c r="J23" s="33">
-        <v>0</v>
-      </c>
-      <c r="K23" s="33">
-        <v>0</v>
-      </c>
-      <c r="L23" s="33">
-        <v>0</v>
-      </c>
-      <c r="M23" s="33">
-        <v>0</v>
-      </c>
-      <c r="N23" s="33">
-        <v>0</v>
-      </c>
-      <c r="O23" s="34">
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="32">
+        <v>0</v>
+      </c>
+      <c r="O23" s="33">
         <f>F23-SUM(G23:N23)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="32">
         <v>20875.5</v>
       </c>
-      <c r="Q23" s="33">
-        <v>0</v>
-      </c>
-      <c r="R23" s="33">
-        <v>0</v>
-      </c>
-      <c r="S23" s="33">
-        <v>0</v>
-      </c>
-      <c r="T23" s="33">
-        <v>0</v>
-      </c>
-      <c r="U23" s="35">
-        <v>0</v>
-      </c>
-      <c r="V23" s="35">
-        <v>0</v>
-      </c>
-      <c r="W23" s="33">
-        <v>0</v>
-      </c>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="33">
+      <c r="Q23" s="32">
+        <v>0</v>
+      </c>
+      <c r="R23" s="32">
+        <v>0</v>
+      </c>
+      <c r="S23" s="32">
+        <v>0</v>
+      </c>
+      <c r="T23" s="32">
+        <v>0</v>
+      </c>
+      <c r="U23" s="34">
+        <v>0</v>
+      </c>
+      <c r="V23" s="34">
+        <v>0</v>
+      </c>
+      <c r="W23" s="32">
+        <v>0</v>
+      </c>
+      <c r="X23" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="32">
         <v>14202</v>
       </c>
-      <c r="AA23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="34">
-        <f>SUM(G23:AA23)+C23</f>
+      <c r="Z23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="33">
+        <f>SUM(G23:Z23)+C23</f>
         <v>35077.5</v>
       </c>
-      <c r="AC23" s="33">
-        <f>AB23-B23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB23" s="32">
+        <f>AA23-B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>110016.336</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="33">
         <v>107.63500000000001</v>
       </c>
-      <c r="D24" s="33">
-        <v>0</v>
-      </c>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="32">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <v>8008.9009999999998</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <v>3682.4490000000001</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>272.19600000000003</v>
       </c>
-      <c r="I24" s="33">
-        <v>0</v>
-      </c>
-      <c r="J24" s="33">
-        <v>0</v>
-      </c>
-      <c r="K24" s="33">
-        <v>0</v>
-      </c>
-      <c r="L24" s="33">
+      <c r="I24" s="32">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24" s="32">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
         <v>3896.0740000000001</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <v>81.47</v>
       </c>
-      <c r="N24" s="33">
-        <v>0</v>
-      </c>
-      <c r="O24" s="34">
+      <c r="N24" s="32">
+        <v>0</v>
+      </c>
+      <c r="O24" s="33">
         <f>F24-SUM(G24:N24)</f>
         <v>76.711999999999534</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="32">
         <v>27687.599999999999</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="32">
         <v>58</v>
       </c>
-      <c r="R24" s="33">
-        <v>0</v>
-      </c>
-      <c r="S24" s="33">
-        <v>0</v>
-      </c>
-      <c r="T24" s="33">
-        <v>0</v>
-      </c>
-      <c r="U24" s="35">
-        <v>0</v>
-      </c>
-      <c r="V24" s="35">
+      <c r="R24" s="32">
+        <v>0</v>
+      </c>
+      <c r="S24" s="32">
+        <v>0</v>
+      </c>
+      <c r="T24" s="32">
+        <v>0</v>
+      </c>
+      <c r="U24" s="34">
+        <v>0</v>
+      </c>
+      <c r="V24" s="34">
         <v>5415</v>
       </c>
-      <c r="W24" s="33">
-        <v>0</v>
-      </c>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33">
+      <c r="W24" s="32">
+        <v>0</v>
+      </c>
+      <c r="X24" s="32">
         <v>6650</v>
       </c>
-      <c r="Z24" s="33">
+      <c r="Y24" s="32">
         <v>62067.6</v>
       </c>
-      <c r="AA24" s="15">
+      <c r="Z24" s="15">
         <v>21.6</v>
       </c>
-      <c r="AB24" s="34">
-        <f>SUM(G24:AA24)+C24</f>
+      <c r="AA24" s="33">
+        <f>SUM(G24:Z24)+C24</f>
         <v>110016.336</v>
       </c>
-      <c r="AC24" s="33">
-        <f>AB24-B24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32">
-        <v>0</v>
-      </c>
-      <c r="S25" s="32">
-        <v>0</v>
-      </c>
-      <c r="T25" s="32">
-        <v>0</v>
-      </c>
-      <c r="W25" s="32">
-        <v>0</v>
-      </c>
-      <c r="X25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="33"/>
-    </row>
-    <row r="26" spans="1:29" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB24" s="32">
+        <f>AA24-B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="11" x14ac:dyDescent="0.2">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31">
+        <v>0</v>
+      </c>
+      <c r="S25" s="31">
+        <v>0</v>
+      </c>
+      <c r="T25" s="31">
+        <v>0</v>
+      </c>
+      <c r="W25" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="31"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="32"/>
+    </row>
+    <row r="26" spans="1:28" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="33">
         <v>60755.800999999999</v>
       </c>
-      <c r="C26" s="33">
-        <v>0</v>
-      </c>
-      <c r="D26" s="34">
-        <v>0</v>
-      </c>
-      <c r="E26" s="34" t="s">
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="34">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0</v>
-      </c>
-      <c r="I26" s="34">
-        <v>0</v>
-      </c>
-      <c r="J26" s="34">
-        <v>0</v>
-      </c>
-      <c r="K26" s="34">
-        <v>0</v>
-      </c>
-      <c r="L26" s="34">
-        <v>0</v>
-      </c>
-      <c r="M26" s="34">
-        <v>0</v>
-      </c>
-      <c r="N26" s="34">
-        <v>0</v>
-      </c>
-      <c r="O26" s="34">
+      <c r="F26" s="33">
+        <v>0</v>
+      </c>
+      <c r="G26" s="33">
+        <v>0</v>
+      </c>
+      <c r="H26" s="33">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33">
+        <v>0</v>
+      </c>
+      <c r="J26" s="33">
+        <v>0</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0</v>
+      </c>
+      <c r="M26" s="33">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="O26" s="33">
         <f>F26-SUM(G26:N26)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="33">
         <v>13296.6</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="33">
         <v>22744</v>
       </c>
-      <c r="R26" s="34">
-        <v>0</v>
-      </c>
-      <c r="S26" s="34">
+      <c r="R26" s="33">
+        <v>0</v>
+      </c>
+      <c r="S26" s="33">
         <v>75.06</v>
       </c>
-      <c r="T26" s="34">
-        <v>0</v>
-      </c>
-      <c r="U26" s="39">
+      <c r="T26" s="33">
+        <v>0</v>
+      </c>
+      <c r="U26" s="37">
         <v>279.74099999999999</v>
       </c>
       <c r="V26" s="15">
         <v>4379</v>
       </c>
-      <c r="W26" s="34">
-        <v>0</v>
-      </c>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34">
-        <v>0</v>
+      <c r="W26" s="33">
+        <v>0</v>
+      </c>
+      <c r="X26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="33">
+        <v>19940.400000000001</v>
       </c>
       <c r="Z26" s="34">
-        <v>19940.400000000001</v>
-      </c>
-      <c r="AA26" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="34">
-        <f>SUM(G26:AA26)+C26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="33">
+        <f>SUM(G26:Z26)+C26</f>
         <v>60714.800999999999</v>
       </c>
-      <c r="AC26" s="33">
-        <f>AB26-B26</f>
+      <c r="AB26" s="32">
+        <f>AA26-B26</f>
         <v>-41</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z27" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="Y27" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="25:25" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y44" s="32"/>
+    <row r="44" spans="24:24" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X44" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5288,47 +5211,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89D8A73-EC0B-8549-8E8D-0A84E8C9F89D}">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection activeCell="U6" sqref="U6"/>
-      <selection pane="topRight" activeCell="AC11" sqref="AC11"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection activeCell="X1" sqref="X1:X1048576"/>
+      <selection pane="topRight" activeCell="Q26" sqref="Q26:X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="11" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="10" style="27" customWidth="1"/>
-    <col min="10" max="10" width="5" style="27" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="12" style="27" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" style="27" customWidth="1"/>
-    <col min="16" max="23" width="13.83203125" style="27" customWidth="1"/>
-    <col min="24" max="24" width="19.83203125" style="27" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="27" customWidth="1"/>
-    <col min="26" max="26" width="19.83203125" style="27" customWidth="1"/>
-    <col min="27" max="27" width="13.1640625" style="27" customWidth="1"/>
-    <col min="28" max="28" width="14" style="27" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="27" customWidth="1"/>
-    <col min="30" max="30" width="19.83203125" style="27" customWidth="1"/>
-    <col min="31" max="16384" width="8.83203125" style="27"/>
+    <col min="1" max="1" width="28" style="26" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11" style="26" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="10" style="26" customWidth="1"/>
+    <col min="10" max="10" width="5" style="26" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="12" style="26" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" style="26" customWidth="1"/>
+    <col min="16" max="23" width="13.83203125" style="26" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" style="26" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" style="26" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" style="26" customWidth="1"/>
+    <col min="27" max="27" width="14" style="26" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" style="26" customWidth="1"/>
+    <col min="29" max="29" width="19.83203125" style="26" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -5380,31 +5302,28 @@
       <c r="U1" s="25"/>
       <c r="V1" s="25"/>
       <c r="W1" s="25"/>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="25" t="s">
         <v>95</v>
       </c>
       <c r="Y1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="AA1" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB1" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5412,7 +5331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -5420,7 +5339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -5428,111 +5347,108 @@
         <v>16</v>
       </c>
       <c r="Q6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" s="17" t="s">
+      <c r="W6" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="W7" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="W7" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+    </row>
+    <row r="8" spans="1:28" ht="11" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC8" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="C8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="11" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -5575,50 +5491,49 @@
         <v>52</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="Q9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="V9" s="17" t="s">
+      <c r="W9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="W9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" s="17"/>
+      <c r="X9" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="Y9" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AC9" s="42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB9" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -5686,18 +5601,15 @@
       <c r="AA10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AB10" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="37">
         <v>2329926.804</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>128697.84699999999</v>
       </c>
       <c r="D11" s="15">
@@ -5706,16 +5618,16 @@
       <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="37">
         <v>137636.19099999999</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="37">
         <v>14511.948</v>
       </c>
       <c r="H11" s="15">
         <v>2799.81</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="37">
         <v>3086.5129999999999</v>
       </c>
       <c r="J11" s="15">
@@ -5724,10 +5636,10 @@
       <c r="K11" s="15">
         <v>0</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="37">
         <v>79286.168999999994</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="37">
         <v>25940.548999999999</v>
       </c>
       <c r="N11" s="15">
@@ -5737,145 +5649,145 @@
         <f>F11-SUM(G11:N11)</f>
         <v>12011.20199999999</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="37">
         <v>815408.51300000004</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="34">
         <v>3327</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="37">
         <v>132.70500000000001</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="37">
         <v>1966.7239999999999</v>
       </c>
-      <c r="T11" s="39">
-        <v>0</v>
-      </c>
-      <c r="U11" s="39">
+      <c r="T11" s="37">
+        <v>0</v>
+      </c>
+      <c r="U11" s="37">
         <v>646.22400000000005</v>
       </c>
-      <c r="V11" s="39">
+      <c r="V11" s="37">
         <v>85623</v>
       </c>
-      <c r="W11" s="39">
+      <c r="W11" s="37">
         <v>76057</v>
       </c>
+      <c r="X11" s="15">
+        <v>179213</v>
+      </c>
       <c r="Y11" s="15">
-        <v>179213</v>
-      </c>
-      <c r="Z11" s="15">
         <v>803761.2</v>
       </c>
-      <c r="AA11" s="35">
+      <c r="Z11" s="34">
         <v>96992.4</v>
       </c>
-      <c r="AB11" s="38">
-        <f>SUM(G11:AA11)+C11</f>
+      <c r="AA11" s="36">
+        <f>SUM(G11:Z11)+C11</f>
         <v>2329461.804</v>
       </c>
-      <c r="AC11" s="32">
-        <f>-(B11-AB11)</f>
+      <c r="AB11" s="31">
+        <f>-(B11-AA11)</f>
         <v>-465</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="39">
         <v>298073.03499999997</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>28433.278999999999</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="39">
         <v>600.34400000000005</v>
       </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="H12" s="41">
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
         <v>43.073999999999998</v>
       </c>
-      <c r="I12" s="35">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35">
-        <v>0</v>
-      </c>
-      <c r="K12" s="35">
-        <v>0</v>
-      </c>
-      <c r="L12" s="35">
+      <c r="I12" s="34">
+        <v>0</v>
+      </c>
+      <c r="J12" s="34">
+        <v>0</v>
+      </c>
+      <c r="K12" s="34">
+        <v>0</v>
+      </c>
+      <c r="L12" s="34">
         <v>429.27</v>
       </c>
-      <c r="M12" s="35">
-        <v>0</v>
-      </c>
-      <c r="N12" s="35">
+      <c r="M12" s="34">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
         <v>0</v>
       </c>
       <c r="O12" s="6">
         <f>F12-SUM(G12:N12)</f>
         <v>128.00000000000006</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="39">
         <v>86104.111999999994</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
       </c>
-      <c r="R12" s="41">
-        <v>0</v>
-      </c>
-      <c r="S12" s="41">
-        <v>0</v>
-      </c>
-      <c r="T12" s="41">
-        <v>0</v>
-      </c>
-      <c r="U12" s="41">
-        <v>0</v>
-      </c>
-      <c r="V12" s="41">
+      <c r="R12" s="39">
+        <v>0</v>
+      </c>
+      <c r="S12" s="39">
+        <v>0</v>
+      </c>
+      <c r="T12" s="39">
+        <v>0</v>
+      </c>
+      <c r="U12" s="39">
+        <v>0</v>
+      </c>
+      <c r="V12" s="39">
         <v>4</v>
       </c>
-      <c r="W12" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="35">
+      <c r="W12" s="39">
+        <v>0</v>
+      </c>
+      <c r="X12" s="34">
         <v>1410</v>
       </c>
-      <c r="Z12" s="35">
+      <c r="Y12" s="34">
         <v>87739.199999999997</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="Z12" s="15">
         <v>93782.1</v>
       </c>
-      <c r="AB12" s="38">
-        <f>SUM(G12:AA12)+C12</f>
+      <c r="AA12" s="36">
+        <f>SUM(G12:Z12)+C12</f>
         <v>298073.03499999997</v>
       </c>
-      <c r="AC12" s="32">
-        <f>-(B12-AB12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB12" s="31">
+        <f>-(B12-AA12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="37">
         <v>567567.06900000002</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>14652.936</v>
       </c>
       <c r="D13" s="15">
@@ -5884,7 +5796,7 @@
       <c r="E13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="37">
         <v>35945.790999999997</v>
       </c>
       <c r="G13" s="15">
@@ -5902,10 +5814,10 @@
       <c r="K13" s="15">
         <v>0</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="37">
         <v>1588.299</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="37">
         <v>21139.732</v>
       </c>
       <c r="N13" s="15">
@@ -5915,145 +5827,145 @@
         <f>F13-SUM(G13:N13)</f>
         <v>480</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="37">
         <v>209784.61600000001</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="34">
         <v>682</v>
       </c>
-      <c r="R13" s="39">
-        <v>0</v>
-      </c>
-      <c r="S13" s="39">
-        <v>0</v>
-      </c>
-      <c r="T13" s="39">
-        <v>0</v>
-      </c>
-      <c r="U13" s="39">
+      <c r="R13" s="37">
+        <v>0</v>
+      </c>
+      <c r="S13" s="37">
+        <v>0</v>
+      </c>
+      <c r="T13" s="37">
+        <v>0</v>
+      </c>
+      <c r="U13" s="37">
         <v>26.925999999999998</v>
       </c>
-      <c r="V13" s="39">
+      <c r="V13" s="37">
         <v>1113</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="37">
         <v>8748</v>
       </c>
+      <c r="X13" s="15">
+        <v>105172</v>
+      </c>
       <c r="Y13" s="15">
-        <v>105172</v>
-      </c>
-      <c r="Z13" s="15">
         <v>189748.8</v>
       </c>
-      <c r="AA13" s="35">
+      <c r="Z13" s="34">
         <v>1692</v>
       </c>
-      <c r="AB13" s="38">
-        <f>SUM(G13:AA13)+C13</f>
+      <c r="AA13" s="36">
+        <f>SUM(G13:Z13)+C13</f>
         <v>567566.0689999999</v>
       </c>
-      <c r="AC13" s="32">
-        <f>-(B13-AB13)</f>
+      <c r="AB13" s="31">
+        <f>-(B13-AA13)</f>
         <v>-1.0000000001164153</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <v>94496.457999999999</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>1097.598</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <v>1601.681</v>
       </c>
-      <c r="G14" s="35">
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="H14" s="39">
         <v>86.147999999999996</v>
       </c>
-      <c r="I14" s="35">
-        <v>0</v>
-      </c>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35">
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
+      <c r="I14" s="34">
+        <v>0</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0</v>
+      </c>
+      <c r="K14" s="34">
+        <v>0</v>
+      </c>
+      <c r="L14" s="39">
         <v>472.197</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="39">
         <v>685.83100000000002</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="34">
         <v>0</v>
       </c>
       <c r="O14" s="6">
         <f>F14-SUM(G14:N14)</f>
         <v>357.50500000000011</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14" s="34">
         <v>35464.18</v>
       </c>
       <c r="Q14" s="15">
         <v>10</v>
       </c>
-      <c r="R14" s="35">
-        <v>0</v>
-      </c>
-      <c r="S14" s="35">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35">
-        <v>0</v>
-      </c>
-      <c r="U14" s="35">
-        <v>0</v>
-      </c>
-      <c r="V14" s="35">
-        <v>0</v>
-      </c>
-      <c r="W14" s="35">
+      <c r="R14" s="34">
+        <v>0</v>
+      </c>
+      <c r="S14" s="34">
+        <v>0</v>
+      </c>
+      <c r="T14" s="34">
+        <v>0</v>
+      </c>
+      <c r="U14" s="34">
+        <v>0</v>
+      </c>
+      <c r="V14" s="34">
+        <v>0</v>
+      </c>
+      <c r="W14" s="34">
         <v>238</v>
       </c>
-      <c r="Y14" s="35">
+      <c r="X14" s="34">
         <v>1131</v>
       </c>
-      <c r="Z14" s="35">
+      <c r="Y14" s="34">
         <v>54954</v>
       </c>
-      <c r="AA14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="38">
-        <f>SUM(G14:AA14)+C14</f>
+      <c r="Z14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="36">
+        <f>SUM(G14:Z14)+C14</f>
         <v>94496.459000000003</v>
       </c>
-      <c r="AC14" s="32">
-        <f>-(B14-AB14)</f>
+      <c r="AB14" s="31">
+        <f>-(B14-AA14)</f>
         <v>1.0000000038417056E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="37">
         <v>281834.08299999998</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>53875.453000000001</v>
       </c>
       <c r="D15" s="15">
@@ -6062,13 +5974,13 @@
       <c r="E15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="37">
         <v>16428.066999999999</v>
       </c>
       <c r="G15" s="15">
         <v>0</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <v>516.88800000000003</v>
       </c>
       <c r="I15" s="15">
@@ -6080,10 +5992,10 @@
       <c r="K15" s="15">
         <v>0</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="37">
         <v>3176.598</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="37">
         <v>2339.8939999999998</v>
       </c>
       <c r="N15" s="15">
@@ -6096,7 +6008,7 @@
       <c r="P15" s="15">
         <v>105073.03</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="34">
         <v>12</v>
       </c>
       <c r="R15" s="15">
@@ -6117,121 +6029,121 @@
       <c r="W15" s="15">
         <v>53692</v>
       </c>
+      <c r="X15" s="15">
+        <v>889</v>
+      </c>
       <c r="Y15" s="15">
-        <v>889</v>
-      </c>
-      <c r="Z15" s="15">
         <v>44971.199999999997</v>
       </c>
-      <c r="AA15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="38">
-        <f>SUM(G15:AA15)+C15</f>
+      <c r="Z15" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="36">
+        <f>SUM(G15:Z15)+C15</f>
         <v>281834.08399999997</v>
       </c>
-      <c r="AC15" s="32">
-        <f>-(B15-AB15)</f>
+      <c r="AB15" s="31">
+        <f>-(B15-AA15)</f>
         <v>9.9999998928979039E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="39">
         <v>120246.702</v>
       </c>
       <c r="C16" s="15">
         <v>7161.88</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="39">
         <v>1628.5350000000001</v>
       </c>
-      <c r="G16" s="35">
-        <v>0</v>
-      </c>
-      <c r="H16" s="35">
+      <c r="G16" s="34">
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
         <v>215.37</v>
       </c>
-      <c r="I16" s="35">
-        <v>0</v>
-      </c>
-      <c r="J16" s="35">
-        <v>0</v>
-      </c>
-      <c r="K16" s="35">
-        <v>0</v>
-      </c>
-      <c r="L16" s="41">
+      <c r="I16" s="34">
+        <v>0</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="34">
+        <v>0</v>
+      </c>
+      <c r="L16" s="39">
         <v>1373.664</v>
       </c>
-      <c r="M16" s="35">
-        <v>0</v>
-      </c>
-      <c r="N16" s="35">
+      <c r="M16" s="34">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
         <v>0</v>
       </c>
       <c r="O16" s="6">
         <f>F16-SUM(G16:N16)</f>
         <v>39.500999999999976</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="39">
         <v>36605.161</v>
       </c>
       <c r="Q16" s="15">
         <v>119</v>
       </c>
-      <c r="R16" s="41">
-        <v>0</v>
-      </c>
-      <c r="S16" s="41">
-        <v>0</v>
-      </c>
-      <c r="T16" s="41">
-        <v>0</v>
-      </c>
-      <c r="U16" s="41">
+      <c r="R16" s="39">
+        <v>0</v>
+      </c>
+      <c r="S16" s="39">
+        <v>0</v>
+      </c>
+      <c r="T16" s="39">
+        <v>0</v>
+      </c>
+      <c r="U16" s="39">
         <v>26.925999999999998</v>
       </c>
-      <c r="V16" s="41">
+      <c r="V16" s="39">
         <v>318</v>
       </c>
-      <c r="W16" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="35">
+      <c r="W16" s="39">
+        <v>0</v>
+      </c>
+      <c r="X16" s="34">
         <v>12126</v>
       </c>
-      <c r="Z16" s="35">
+      <c r="Y16" s="34">
         <v>61120.800000000003</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="Z16" s="15">
         <v>1139.4000000000001</v>
       </c>
-      <c r="AB16" s="38">
-        <f>SUM(G16:AA16)+C16</f>
+      <c r="AA16" s="36">
+        <f>SUM(G16:Z16)+C16</f>
         <v>120245.702</v>
       </c>
-      <c r="AC16" s="32">
-        <f>-(B16-AB16)</f>
+      <c r="AB16" s="31">
+        <f>-(B16-AA16)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="37">
         <v>214289.12599999999</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="39">
         <v>574.64200000000005</v>
       </c>
       <c r="D17" s="15">
@@ -6240,13 +6152,13 @@
       <c r="E17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="37">
         <v>8575.7720000000008</v>
       </c>
       <c r="G17" s="15">
         <v>0</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <v>947.62800000000004</v>
       </c>
       <c r="I17" s="15">
@@ -6258,10 +6170,10 @@
       <c r="K17" s="15">
         <v>0</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="37">
         <v>7469.2979999999998</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="37">
         <v>40.343000000000004</v>
       </c>
       <c r="N17" s="15">
@@ -6271,145 +6183,145 @@
         <f>F17-SUM(G17:N17)</f>
         <v>118.50300000000061</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="37">
         <v>73810.733999999997</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="34">
         <v>103</v>
       </c>
-      <c r="R17" s="39">
-        <v>0</v>
-      </c>
-      <c r="S17" s="39">
-        <v>0</v>
-      </c>
-      <c r="T17" s="39">
-        <v>0</v>
-      </c>
-      <c r="U17" s="39">
+      <c r="R17" s="37">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37">
+        <v>0</v>
+      </c>
+      <c r="T17" s="37">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
         <v>80.778000000000006</v>
       </c>
-      <c r="V17" s="39">
+      <c r="V17" s="37">
         <v>1258</v>
       </c>
-      <c r="W17" s="39">
+      <c r="W17" s="37">
         <v>781</v>
       </c>
+      <c r="X17" s="15">
+        <v>10178</v>
+      </c>
       <c r="Y17" s="15">
-        <v>10178</v>
-      </c>
-      <c r="Z17" s="15">
         <v>118558.8</v>
       </c>
-      <c r="AA17" s="35">
+      <c r="Z17" s="34">
         <v>365.4</v>
       </c>
-      <c r="AB17" s="38">
-        <f>SUM(G17:AA17)+C17</f>
+      <c r="AA17" s="36">
+        <f>SUM(G17:Z17)+C17</f>
         <v>214286.12599999999</v>
       </c>
-      <c r="AC17" s="32">
-        <f>-(B17-AB17)</f>
+      <c r="AB17" s="31">
+        <f>-(B17-AA17)</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="39">
         <v>14600.868</v>
       </c>
       <c r="C18" s="15">
         <v>2624.08</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="39">
         <v>1194.825</v>
       </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="41">
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="39">
         <v>129.22200000000001</v>
       </c>
-      <c r="I18" s="35">
-        <v>0</v>
-      </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
-        <v>0</v>
-      </c>
-      <c r="L18" s="41">
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="34">
+        <v>0</v>
+      </c>
+      <c r="L18" s="39">
         <v>729.75900000000001</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="39">
         <v>40.343000000000004</v>
       </c>
-      <c r="N18" s="35">
+      <c r="N18" s="34">
         <v>0</v>
       </c>
       <c r="O18" s="6">
         <f>F18-SUM(G18:N18)</f>
         <v>295.50100000000009</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="39">
         <v>3917.636</v>
       </c>
       <c r="Q18" s="15">
         <v>73</v>
       </c>
-      <c r="R18" s="41">
-        <v>0</v>
-      </c>
-      <c r="S18" s="41">
-        <v>0</v>
-      </c>
-      <c r="T18" s="41">
-        <v>0</v>
-      </c>
-      <c r="U18" s="41">
+      <c r="R18" s="39">
+        <v>0</v>
+      </c>
+      <c r="S18" s="39">
+        <v>0</v>
+      </c>
+      <c r="T18" s="39">
+        <v>0</v>
+      </c>
+      <c r="U18" s="39">
         <v>26.925999999999998</v>
       </c>
-      <c r="V18" s="41">
+      <c r="V18" s="39">
         <v>130</v>
       </c>
-      <c r="W18" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="35">
+      <c r="W18" s="39">
+        <v>0</v>
+      </c>
+      <c r="X18" s="34">
         <v>194</v>
       </c>
-      <c r="Z18" s="35">
+      <c r="Y18" s="34">
         <v>6440.4</v>
       </c>
-      <c r="AA18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="38">
-        <f>SUM(G18:AA18)+C18</f>
+      <c r="Z18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="36">
+        <f>SUM(G18:Z18)+C18</f>
         <v>14600.867</v>
       </c>
-      <c r="AC18" s="32">
-        <f>-(B18-AB18)</f>
+      <c r="AB18" s="31">
+        <f>-(B18-AA18)</f>
         <v>-1.0000000002037268E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="37">
         <v>213476.288</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="39">
         <v>7846.0739999999996</v>
       </c>
       <c r="D19" s="15">
@@ -6418,13 +6330,13 @@
       <c r="E19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="37">
         <v>6834.6090000000004</v>
       </c>
       <c r="G19" s="15">
         <v>0</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="37">
         <v>258.44400000000002</v>
       </c>
       <c r="I19" s="15">
@@ -6436,7 +6348,7 @@
       <c r="K19" s="15">
         <v>0</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="37">
         <v>5365.875</v>
       </c>
       <c r="M19" s="15">
@@ -6449,145 +6361,145 @@
         <f>F19-SUM(G19:N19)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="37">
         <v>116593.553</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="34">
         <v>844</v>
       </c>
-      <c r="R19" s="39">
-        <v>0</v>
-      </c>
-      <c r="S19" s="39">
-        <v>0</v>
-      </c>
-      <c r="T19" s="39">
-        <v>0</v>
-      </c>
-      <c r="U19" s="39">
+      <c r="R19" s="37">
+        <v>0</v>
+      </c>
+      <c r="S19" s="37">
+        <v>0</v>
+      </c>
+      <c r="T19" s="37">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37">
         <v>53.851999999999997</v>
       </c>
-      <c r="V19" s="39">
+      <c r="V19" s="37">
         <v>2111</v>
       </c>
-      <c r="W19" s="39">
-        <v>0</v>
+      <c r="W19" s="37">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>11956</v>
       </c>
       <c r="Y19" s="15">
-        <v>11956</v>
-      </c>
-      <c r="Z19" s="15">
         <v>67237.2</v>
       </c>
-      <c r="AA19" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="38">
-        <f>SUM(G19:AA19)+C19</f>
+      <c r="Z19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="36">
+        <f>SUM(G19:Z19)+C19</f>
         <v>213476.28799999997</v>
       </c>
-      <c r="AC19" s="32">
-        <f>-(B19-AB19)</f>
+      <c r="AB19" s="31">
+        <f>-(B19-AA19)</f>
         <v>-2.9103830456733704E-11</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="39">
         <v>223933.81700000001</v>
       </c>
       <c r="C20" s="15">
         <v>10776.85</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="39">
         <v>1645.181</v>
       </c>
-      <c r="G20" s="35">
-        <v>0</v>
-      </c>
-      <c r="H20" s="41">
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="H20" s="39">
         <v>86.147999999999996</v>
       </c>
-      <c r="I20" s="35">
-        <v>0</v>
-      </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="35">
-        <v>0</v>
-      </c>
-      <c r="L20" s="41">
+      <c r="I20" s="34">
+        <v>0</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" s="34">
+        <v>0</v>
+      </c>
+      <c r="L20" s="39">
         <v>1116.1020000000001</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="34">
         <v>403.43</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="34">
         <v>0</v>
       </c>
       <c r="O20" s="6">
         <f>F20-SUM(G20:N20)</f>
         <v>39.500999999999976</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="39">
         <v>78489.357000000004</v>
       </c>
       <c r="Q20" s="15">
         <v>1340</v>
       </c>
-      <c r="R20" s="41">
-        <v>0</v>
-      </c>
-      <c r="S20" s="41">
-        <v>0</v>
-      </c>
-      <c r="T20" s="41">
-        <v>0</v>
-      </c>
-      <c r="U20" s="41">
+      <c r="R20" s="39">
+        <v>0</v>
+      </c>
+      <c r="S20" s="39">
+        <v>0</v>
+      </c>
+      <c r="T20" s="39">
+        <v>0</v>
+      </c>
+      <c r="U20" s="39">
         <v>134.63</v>
       </c>
-      <c r="V20" s="41">
+      <c r="V20" s="39">
         <v>21064</v>
       </c>
-      <c r="W20" s="41">
+      <c r="W20" s="39">
         <v>12446</v>
       </c>
-      <c r="Y20" s="35">
+      <c r="X20" s="34">
         <v>26801</v>
       </c>
-      <c r="Z20" s="35">
+      <c r="Y20" s="34">
         <v>71236.800000000003</v>
       </c>
-      <c r="AA20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="38">
-        <f>SUM(G20:AA20)+C20</f>
+      <c r="Z20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="36">
+        <f>SUM(G20:Z20)+C20</f>
         <v>223933.818</v>
       </c>
-      <c r="AC20" s="32">
-        <f>-(B20-AB20)</f>
+      <c r="AB20" s="31">
+        <f>-(B20-AA20)</f>
         <v>9.9999998928979039E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="37">
         <v>72305.264999999999</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>0</v>
       </c>
       <c r="D21" s="15">
@@ -6596,13 +6508,13 @@
       <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="37">
         <v>641.46799999999996</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="37">
         <v>43.073999999999998</v>
       </c>
       <c r="I21" s="15">
@@ -6614,10 +6526,10 @@
       <c r="K21" s="15">
         <v>0</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="37">
         <v>558.05100000000004</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="37">
         <v>40.343000000000004</v>
       </c>
       <c r="N21" s="15">
@@ -6627,56 +6539,56 @@
         <f>F21-SUM(G21:N21)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="39">
+      <c r="P21" s="37">
         <v>4556.9449999999997</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="34">
         <v>5</v>
       </c>
-      <c r="R21" s="39">
-        <v>0</v>
-      </c>
-      <c r="S21" s="39">
-        <v>0</v>
-      </c>
-      <c r="T21" s="39">
-        <v>0</v>
-      </c>
-      <c r="U21" s="39">
+      <c r="R21" s="37">
+        <v>0</v>
+      </c>
+      <c r="S21" s="37">
+        <v>0</v>
+      </c>
+      <c r="T21" s="37">
+        <v>0</v>
+      </c>
+      <c r="U21" s="37">
         <v>53.851999999999997</v>
       </c>
-      <c r="V21" s="39">
+      <c r="V21" s="37">
         <v>48238</v>
       </c>
-      <c r="W21" s="39">
+      <c r="W21" s="37">
         <v>149</v>
       </c>
+      <c r="X21" s="15">
+        <v>2227</v>
+      </c>
       <c r="Y21" s="15">
-        <v>2227</v>
-      </c>
-      <c r="Z21" s="15">
         <v>16434</v>
       </c>
-      <c r="AA21" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="38">
-        <f>SUM(G21:AA21)+C21</f>
+      <c r="Z21" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="36">
+        <f>SUM(G21:Z21)+C21</f>
         <v>72305.264999999999</v>
       </c>
-      <c r="AC21" s="32">
-        <f>-(B21-AB21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB21" s="31">
+        <f>-(B21-AA21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="37">
         <v>17319.823</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="39">
         <v>180.55199999999999</v>
       </c>
       <c r="D22" s="15">
@@ -6685,13 +6597,13 @@
       <c r="E22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="37">
         <v>601.125</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="37">
         <v>43.073999999999998</v>
       </c>
       <c r="I22" s="15">
@@ -6703,7 +6615,7 @@
       <c r="K22" s="15">
         <v>0</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="37">
         <v>558.05100000000004</v>
       </c>
       <c r="M22" s="15">
@@ -6716,266 +6628,266 @@
         <f>F22-SUM(G22:N22)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="37">
         <v>8865.5460000000003</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="34">
         <v>3</v>
       </c>
-      <c r="R22" s="39">
-        <v>0</v>
-      </c>
-      <c r="S22" s="39">
-        <v>0</v>
-      </c>
-      <c r="T22" s="39">
-        <v>0</v>
-      </c>
-      <c r="U22" s="39">
-        <v>0</v>
-      </c>
-      <c r="V22" s="39">
+      <c r="R22" s="37">
+        <v>0</v>
+      </c>
+      <c r="S22" s="37">
+        <v>0</v>
+      </c>
+      <c r="T22" s="37">
+        <v>0</v>
+      </c>
+      <c r="U22" s="37">
+        <v>0</v>
+      </c>
+      <c r="V22" s="37">
         <v>120</v>
       </c>
-      <c r="W22" s="39">
-        <v>0</v>
+      <c r="W22" s="37">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <v>544</v>
       </c>
       <c r="Y22" s="15">
-        <v>544</v>
+        <v>7005.6</v>
       </c>
       <c r="Z22" s="15">
-        <v>7005.6</v>
-      </c>
-      <c r="AA22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="38">
-        <f>SUM(G22:AA22)+C22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="36">
+        <f>SUM(G22:Z22)+C22</f>
         <v>17319.823</v>
       </c>
-      <c r="AC22" s="32">
-        <f>-(B22-AB22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB22" s="31">
+        <f>-(B22-AA22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="39">
         <v>102209.42200000001</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>0</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="39">
         <v>56315.993000000002</v>
       </c>
-      <c r="G23" s="35">
-        <v>0</v>
-      </c>
-      <c r="H23" s="35">
-        <v>0</v>
-      </c>
-      <c r="I23" s="41">
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="39">
         <v>3086.5129999999999</v>
       </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="35">
-        <v>0</v>
-      </c>
-      <c r="L23" s="35">
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="34">
+        <v>0</v>
+      </c>
+      <c r="L23" s="34">
         <v>53229.48</v>
       </c>
-      <c r="M23" s="35">
-        <v>0</v>
-      </c>
-      <c r="N23" s="35">
+      <c r="M23" s="34">
+        <v>0</v>
+      </c>
+      <c r="N23" s="34">
         <v>0</v>
       </c>
       <c r="O23" s="6">
         <f>F23-SUM(G23:N23)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="35">
+      <c r="P23" s="34">
         <v>26449.200000000001</v>
       </c>
       <c r="Q23" s="15">
         <v>0</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23" s="34">
         <v>132.70500000000001</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23" s="34">
         <v>1966.7239999999999</v>
       </c>
-      <c r="T23" s="35">
-        <v>0</v>
-      </c>
-      <c r="U23" s="35">
-        <v>0</v>
-      </c>
-      <c r="V23" s="35">
-        <v>0</v>
-      </c>
-      <c r="W23" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="35">
+      <c r="T23" s="34">
+        <v>0</v>
+      </c>
+      <c r="U23" s="34">
+        <v>0</v>
+      </c>
+      <c r="V23" s="34">
+        <v>0</v>
+      </c>
+      <c r="W23" s="34">
+        <v>0</v>
+      </c>
+      <c r="X23" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="34">
         <v>17344.8</v>
       </c>
-      <c r="AA23" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="38">
-        <f>SUM(G23:AA23)+C23</f>
+      <c r="Z23" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="36">
+        <f>SUM(G23:Z23)+C23</f>
         <v>102209.42200000001</v>
       </c>
-      <c r="AC23" s="32">
-        <f>-(B23-AB23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB23" s="31">
+        <f>-(B23-AA23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="39">
         <v>109114.848</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="37">
         <v>1474.5050000000001</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="34">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <v>5622.8</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="39">
         <v>1774.1880000000001</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="34">
         <v>430.74</v>
       </c>
-      <c r="I24" s="35">
-        <v>0</v>
-      </c>
-      <c r="J24" s="35">
-        <v>0</v>
-      </c>
-      <c r="K24" s="35">
-        <v>0</v>
-      </c>
-      <c r="L24" s="41">
+      <c r="I24" s="34">
+        <v>0</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+      <c r="K24" s="34">
+        <v>0</v>
+      </c>
+      <c r="L24" s="39">
         <v>3219.5250000000001</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="39">
         <v>40.343000000000004</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24" s="34">
         <v>0</v>
       </c>
       <c r="O24" s="6">
         <f>F24-SUM(G24:N24)</f>
         <v>158.00400000000081</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="39">
         <v>29694.444</v>
       </c>
       <c r="Q24" s="15">
         <v>136</v>
       </c>
-      <c r="R24" s="41">
-        <v>0</v>
-      </c>
-      <c r="S24" s="41">
-        <v>0</v>
-      </c>
-      <c r="T24" s="41">
-        <v>0</v>
-      </c>
-      <c r="U24" s="41">
-        <v>0</v>
-      </c>
-      <c r="V24" s="41">
+      <c r="R24" s="39">
+        <v>0</v>
+      </c>
+      <c r="S24" s="39">
+        <v>0</v>
+      </c>
+      <c r="T24" s="39">
+        <v>0</v>
+      </c>
+      <c r="U24" s="39">
+        <v>0</v>
+      </c>
+      <c r="V24" s="39">
         <v>4616</v>
       </c>
-      <c r="W24" s="41">
+      <c r="W24" s="39">
         <v>3</v>
       </c>
-      <c r="Y24" s="35">
+      <c r="X24" s="34">
         <v>6585</v>
       </c>
-      <c r="Z24" s="35">
+      <c r="Y24" s="34">
         <v>60969.599999999999</v>
       </c>
-      <c r="AA24" s="15">
+      <c r="Z24" s="15">
         <v>13.5</v>
       </c>
-      <c r="AB24" s="38">
-        <f>SUM(G24:AA24)+C24</f>
+      <c r="AA24" s="36">
+        <f>SUM(G24:Z24)+C24</f>
         <v>109114.849</v>
       </c>
-      <c r="AC24" s="32">
-        <f>-(B24-AB24)</f>
+      <c r="AB24" s="31">
+        <f>-(B24-AA24)</f>
         <v>1.0000000038417056E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="39"/>
+    <row r="25" spans="1:28" ht="11" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="15"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="15"/>
-      <c r="R25" s="27">
-        <v>0</v>
-      </c>
-      <c r="S25" s="27">
-        <v>0</v>
-      </c>
-      <c r="T25" s="27">
-        <v>0</v>
-      </c>
-      <c r="W25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="32"/>
-    </row>
-    <row r="26" spans="1:29" ht="31" x14ac:dyDescent="0.2">
+      <c r="R25" s="26">
+        <v>0</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0</v>
+      </c>
+      <c r="T25" s="26">
+        <v>0</v>
+      </c>
+      <c r="W25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="31"/>
+    </row>
+    <row r="26" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="37">
         <v>149608.41699999999</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="34">
         <v>0</v>
       </c>
       <c r="D26" s="15">
@@ -6984,7 +6896,7 @@
       <c r="E26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="37">
         <v>88423.578999999998</v>
       </c>
       <c r="G26" s="15">
@@ -6993,7 +6905,7 @@
       <c r="H26" s="15">
         <v>8830.17</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="37">
         <v>2367.7359999999999</v>
       </c>
       <c r="J26" s="15">
@@ -7002,7 +6914,7 @@
       <c r="K26" s="15">
         <v>0</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="37">
         <v>77225.672999999995</v>
       </c>
       <c r="M26" s="15">
@@ -7018,7 +6930,7 @@
       <c r="P26" s="15">
         <v>10788.3</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="Q26" s="34">
         <v>23474</v>
       </c>
       <c r="R26" s="15">
@@ -7039,47 +6951,47 @@
       <c r="W26" s="15">
         <v>0</v>
       </c>
+      <c r="X26" s="15">
+        <v>0</v>
+      </c>
       <c r="Y26" s="15">
-        <v>0</v>
+        <v>18212.400000000001</v>
       </c>
       <c r="Z26" s="15">
-        <v>18212.400000000001</v>
-      </c>
-      <c r="AA26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="38">
-        <f>SUM(G26:AA26)+C26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="36">
+        <f>SUM(G26:Z26)+C26</f>
         <v>149563.41699999999</v>
       </c>
-      <c r="AC26" s="32">
-        <f>-(B26-AB26)</f>
+      <c r="AB26" s="31">
+        <f>-(B26-AA26)</f>
         <v>-45</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:28" ht="11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
